--- a/biology/Botanique/Liste_d'espèces_de_plantes_décrites_entre_1996_et_2000/Liste_d'espèces_de_plantes_décrites_entre_1996_et_2000.xlsx
+++ b/biology/Botanique/Liste_d'espèces_de_plantes_décrites_entre_1996_et_2000/Liste_d'espèces_de_plantes_décrites_entre_1996_et_2000.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_1996_et_2000</t>
+          <t>Liste_d'espèces_de_plantes_décrites_entre_1996_et_2000</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">De nouvelles espèces vivantes sont régulièrement définies chaque année.
 La description d'une nouvelle espèce dans la nomenclature peut se faire de trois manières principales :
@@ -500,7 +512,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_1996_et_2000</t>
+          <t>Liste_d'espèces_de_plantes_décrites_entre_1996_et_2000</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,12 +527,21 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1996</t>
+          <t>1997</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Espèces décrites en 1996</t>
+          <t>Espèces décrites en 1997</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Crepis novoana Ortiz, Sonora &amp; Rodriguez-Oubina, 1997
+Astéracée découverte en Galice (Espagne).
+Aripuana cullmaniorum Struwe, Maas et Albert, 1997
+Gentianacée. La découverte de cette a nécessité la création d'un nouveau genre dont le nom rappelle la rivière Aripuana. L'épithète spécifique honore Lewis B. Cullman et Dorothy Cullman, mécènes du Jardin botanique de New-York .</t>
         </is>
       </c>
     </row>
@@ -530,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_1996_et_2000</t>
+          <t>Liste_d'espèces_de_plantes_décrites_entre_1996_et_2000</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,16 +566,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1997</t>
+          <t>1998</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Espèces décrites en 1997
-Crepis novoana Ortiz, Sonora &amp; Rodriguez-Oubina, 1997
-Astéracée découverte en Galice (Espagne).
-Aripuana cullmaniorum Struwe, Maas et Albert, 1997
-Gentianacée. La découverte de cette a nécessité la création d'un nouveau genre dont le nom rappelle la rivière Aripuana. L'épithète spécifique honore Lewis B. Cullman et Dorothy Cullman, mécènes du Jardin botanique de New-York [1].</t>
+          <t>Espèces vivantes décrites en 1998</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sanicula moranii Vargas, Constance &amp; Baldwin, 1998
+Apiacée découverte en Baja California (Mexique) .
+Dracaena tamaranae Marrero, Almeida et González-Martín, 1998
+Découvert dans l'île de Grande-Canarie .</t>
         </is>
       </c>
     </row>
@@ -564,7 +590,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_1996_et_2000</t>
+          <t>Liste_d'espèces_de_plantes_décrites_entre_1996_et_2000</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,16 +605,23 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>1999</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Espèces vivantes décrites en 1998
-Sanicula moranii Vargas, Constance &amp; Baldwin, 1998
-Apiacée découverte en Baja California (Mexique) [2].
-Dracaena tamaranae Marrero, Almeida et González-Martín, 1998
-Découvert dans l'île de Grande-Canarie [3].</t>
+          <t>Espèces vivantes décrites en 1999</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Astéracées</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Leontopodium montisganeshii Akiyama, 1999
+Edelweiss découvert au Népal.</t>
         </is>
       </c>
     </row>
@@ -598,7 +631,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_1996_et_2000</t>
+          <t>Liste_d'espèces_de_plantes_décrites_entre_1996_et_2000</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,48 +646,23 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Espèces vivantes décrites en 1999
-Astéracées
-Leontopodium montisganeshii Akiyama, 1999
-Edelweiss découvert au Népal.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_1996_et_2000</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_1996_et_2000</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Espèces vivantes décrites en 2000
-Apiacées (Ombellifères)
-Ferulago idaea Ozhatay &amp;Akalin, 2000
-Découverte en Turquie[4].</t>
+          <t>Espèces vivantes décrites en 2000</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Apiacées (Ombellifères)</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ferulago idaea Ozhatay &amp;Akalin, 2000
+Découverte en Turquie.</t>
         </is>
       </c>
     </row>
